--- a/Summary CATE Metrics_05.08.2023.xlsx
+++ b/Summary CATE Metrics_05.08.2023.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shelbygolden/Desktop/Life/Personal/College/Masters/Johns Hopkins/Statistical Theory II/Stat Theory II_Spring 2023/Semester Project/Project GitHub Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E630CD07-1A91-154F-8B79-D823FDFD43C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E9B15E-F73D-8643-8113-92298F149447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{60BB6ECC-ECB2-534B-AD4D-AA5F7D624C1A}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{60BB6ECC-ECB2-534B-AD4D-AA5F7D624C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -218,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -251,7 +251,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -571,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E079E24D-2813-5649-8A03-9BB3068BA1C6}">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,26 +1014,44 @@
         <v>28</v>
       </c>
     </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F26" s="18"/>
+    </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="11"/>
       <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="11"/>
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="11"/>
       <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F30" s="18"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B26:J27">

--- a/Summary CATE Metrics_05.08.2023.xlsx
+++ b/Summary CATE Metrics_05.08.2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shelbygolden/Desktop/Life/Personal/College/Masters/Johns Hopkins/Statistical Theory II/Stat Theory II_Spring 2023/Semester Project/Project GitHub Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E9B15E-F73D-8643-8113-92298F149447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F491F-F453-AE40-93A2-295A570913E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{60BB6ECC-ECB2-534B-AD4D-AA5F7D624C1A}"/>
+    <workbookView xWindow="1940" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{60BB6ECC-ECB2-534B-AD4D-AA5F7D624C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>Modeling Method</t>
   </si>
@@ -144,6 +144,12 @@
   <si>
     <t>Causal 
 Prediction Rank</t>
+  </si>
+  <si>
+    <t>CATE_glmOutcomes</t>
+  </si>
+  <si>
+    <t>CATE_propOutcomes</t>
   </si>
 </sst>
 </file>
@@ -201,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -243,9 +249,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -571,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E079E24D-2813-5649-8A03-9BB3068BA1C6}">
-  <dimension ref="B2:K30"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,9 +589,9 @@
     <col min="5" max="5" width="19.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="17" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="18" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="17" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -635,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="10">
-        <v>-4.4015440000000003E-2</v>
+        <v>-4.5913219999999998E-2</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>29</v>
@@ -658,7 +661,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="10">
-        <v>-3.4027099999999998E-2</v>
+        <v>-6.5493709999999997E-2</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>29</v>
@@ -681,21 +684,21 @@
         <v>7</v>
       </c>
       <c r="F5" s="11">
-        <v>-3.1023390000000001E-2</v>
+        <v>-5.7264219999999998E-2</v>
       </c>
       <c r="G5" s="11">
         <f>ABS($F$4 - F5)</f>
-        <v>3.0037099999999962E-3</v>
-      </c>
-      <c r="H5" s="16">
-        <v>3</v>
+        <v>8.229489999999999E-3</v>
+      </c>
+      <c r="H5" s="15">
+        <v>2</v>
       </c>
       <c r="I5" s="11">
         <f>ABS($F$3 - F5)</f>
-        <v>1.2992050000000002E-2</v>
-      </c>
-      <c r="J5" s="16">
-        <v>3</v>
+        <v>1.1351E-2</v>
+      </c>
+      <c r="J5" s="15">
+        <v>2</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -713,21 +716,21 @@
         <v>8</v>
       </c>
       <c r="F6" s="11">
-        <v>-3.1099999999999999E-2</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="G6" s="11">
         <f>ABS($F$4 - F6)</f>
-        <v>2.9270999999999985E-3</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2</v>
+        <v>1.1493709999999997E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>3</v>
       </c>
       <c r="I6" s="11">
         <f>ABS($F$3 - F6)</f>
-        <v>1.2915440000000004E-2</v>
-      </c>
-      <c r="J6" s="16">
-        <v>2</v>
+        <v>8.0867800000000017E-3</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -744,21 +747,21 @@
         <v>9</v>
       </c>
       <c r="F7" s="11">
-        <v>-3.4000000000000002E-2</v>
+        <v>-6.5493709999999997E-2</v>
       </c>
       <c r="G7" s="11">
         <f>ABS($F$4 - F7)</f>
-        <v>2.7099999999995183E-5</v>
-      </c>
-      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
         <v>1</v>
       </c>
       <c r="I7" s="11">
         <f>ABS($F$3 - F7)</f>
-        <v>1.001544E-2</v>
-      </c>
-      <c r="J7" s="16">
-        <v>1</v>
+        <v>1.9580489999999999E-2</v>
+      </c>
+      <c r="J7" s="15">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -775,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="10">
-        <v>2.1312869999999999E-3</v>
+        <v>-3.114337E-2</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>29</v>
@@ -798,21 +801,21 @@
         <v>23</v>
       </c>
       <c r="F9" s="11">
-        <v>-1.1722080000000001E-3</v>
+        <v>-7.9271709999999995E-2</v>
       </c>
       <c r="G9" s="11">
         <f>ABS($F$8 - F9)</f>
-        <v>3.303495E-3</v>
-      </c>
-      <c r="H9" s="16">
-        <v>1</v>
+        <v>4.8128339999999992E-2</v>
+      </c>
+      <c r="H9" s="15">
+        <v>4</v>
       </c>
       <c r="I9" s="11">
         <f>ABS($F$3 - F9)</f>
-        <v>4.2843232000000002E-2</v>
-      </c>
-      <c r="J9" s="18">
-        <v>2</v>
+        <v>3.3358489999999998E-2</v>
+      </c>
+      <c r="J9" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -829,21 +832,21 @@
         <v>24</v>
       </c>
       <c r="F10" s="11">
-        <v>4.9552430000000001E-2</v>
+        <v>-2.5795769999999999E-2</v>
       </c>
       <c r="G10" s="11">
         <f>ABS($F$8 - F10)</f>
-        <v>4.7421142999999999E-2</v>
-      </c>
-      <c r="H10" s="16">
-        <v>4</v>
+        <v>5.347600000000001E-3</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
       </c>
       <c r="I10" s="11">
         <f>ABS($F$3 - F10)</f>
-        <v>9.3567869999999997E-2</v>
-      </c>
-      <c r="J10" s="18">
-        <v>4</v>
+        <v>2.0117449999999999E-2</v>
+      </c>
+      <c r="J10" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -860,21 +863,21 @@
         <v>25</v>
       </c>
       <c r="F11" s="11">
-        <v>1.358696E-2</v>
+        <v>-3.7000249999999998E-2</v>
       </c>
       <c r="G11" s="11">
         <f>ABS($F$8 - F11)</f>
-        <v>1.1455673E-2</v>
-      </c>
-      <c r="H11" s="16">
+        <v>5.8568799999999983E-3</v>
+      </c>
+      <c r="H11" s="15">
         <v>2</v>
       </c>
       <c r="I11" s="11">
         <f>ABS($F$3 - F11)</f>
-        <v>5.7602400000000005E-2</v>
-      </c>
-      <c r="J11" s="18">
-        <v>3</v>
+        <v>8.9129699999999992E-3</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -888,24 +891,24 @@
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F12" s="11">
-        <v>-4.0920720000000001E-2</v>
+        <v>-6.3814620000000002E-2</v>
       </c>
       <c r="G12" s="11">
         <f>ABS($F$8 - F12)</f>
-        <v>4.3052007000000003E-2</v>
-      </c>
-      <c r="H12" s="16">
+        <v>3.2671249999999999E-2</v>
+      </c>
+      <c r="H12" s="15">
         <v>3</v>
       </c>
       <c r="I12" s="11">
         <f>ABS($F$3 - F12)</f>
-        <v>3.0947200000000022E-3</v>
-      </c>
-      <c r="J12" s="18">
-        <v>1</v>
+        <v>1.7901400000000005E-2</v>
+      </c>
+      <c r="J12" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -919,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F13" s="12">
         <v>0</v>
@@ -927,11 +930,11 @@
       <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="4" t="s">
         <v>26</v>
       </c>
@@ -950,7 +953,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7">
-        <v>0.71950000000000003</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>29</v>
@@ -973,7 +976,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="8">
-        <v>0.61729999999999996</v>
+        <v>0.74380000000000002</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>29</v>
@@ -1015,48 +1018,17 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F22" s="18"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F23" s="18"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="11"/>
-      <c r="F27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E28" s="11"/>
-      <c r="F28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E29" s="11"/>
-      <c r="F29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F30" s="18"/>
+      <c r="F24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B26:J27">
-    <sortCondition ref="I25:I27"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>